--- a/리볼트데이_스크립트(캐릭터 별 대사).xlsx
+++ b/리볼트데이_스크립트(캐릭터 별 대사).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="232">
   <si>
     <t>EventID</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>지문</t>
-  </si>
-  <si>
-    <t>이벤트 실행 조건</t>
   </si>
   <si>
     <t>박우주</t>
@@ -671,10 +668,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>시위 없는 세상에서 살고싶네. 정말.▼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강소원1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -872,6 +865,292 @@
   </si>
   <si>
     <t>이런- 섭섭해라.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상아이템</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 연구실에서 들은 얘기가 있어요. 혹시라도 형사님께 도움
+될까봐.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>단서토큰+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박우주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움이 되셨으면 좋겠어요.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분히 도움이 됐습니다. 고맙습니다.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>해당 이벤트는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다시는 발생하지 않음&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박우주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 맞다.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">단서토큰 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+1 획득</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI "단서토큰 2개 획득"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI "단서토큰 3개 획득"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실에서 들은 얘기가 있어요.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분히 도움이 된 것 같습니다.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이벤트는 다시 발생하지 않음&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>I "고스톱 획득"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">고스톱 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+1 획득</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 이건 받아 가야지.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신, 이거라도 받아 가든가.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>I "테이저 건 획득"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">테이저건 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+1 획득</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강소원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시위 없는 세상에서 살고싶네. 정말.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경위님 돌아다니는 꼴을 보니까 위험한 곳들만 골라다니시더만
+▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거라도 가지고 가시든가.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>군대용 보급품 아닙니까?▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러든지, 말든지, 내 알 바는 아닌데.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;해당 이벤트는 다시 발생하지 않음&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식사도 못 하시는 거 같은데, 도움이라도 될까 해서.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 용돈이랍니다. 이왕 돌아다니시는거, 식사라도 든든히 하셔
+야지요.▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>I "8천원 획득"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">재화 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>8000원 획득</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 수고하시길 바랄게요?▼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;해당 이벤트는 다시 발생하지 않음&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +1262,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1287,11 +1569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1305,6 +1587,7 @@
     <col min="7" max="7" width="54.125" customWidth="1"/>
     <col min="8" max="8" width="44.875" customWidth="1"/>
     <col min="9" max="9" width="36.25" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1334,83 +1617,83 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,954 +1708,962 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7" t="s">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="7" t="s">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7" t="s">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7" t="s">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="7" t="s">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="5"/>
+      <c r="G26" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G35" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G38" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G42" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G45" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E46" s="5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="G47" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G48" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G49" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="5" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E59" s="5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="5" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G61" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" s="5" t="s">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G63" s="5" t="s">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="5" t="s">
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G66" s="5" t="s">
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="5" t="s">
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G68" s="5" t="s">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G69" s="5" t="s">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="5" t="s">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G71" s="5" t="s">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="5" t="s">
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G73" s="5" t="s">
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="C86" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="5" t="s">
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G76" s="5" t="s">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="5" t="s">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G78" s="5" t="s">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G79" s="5" t="s">
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G80" s="5" t="s">
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G81" s="5" t="s">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="5" t="s">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="5" t="s">
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="5" t="s">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G85" s="5" t="s">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="5" t="s">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="E99" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="5" t="s">
+    </row>
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G89" s="4" t="s">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="5" t="s">
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92" s="5" t="s">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E93" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G93" s="5" t="s">
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G94" s="5" t="s">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G95" s="5" t="s">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G96" s="5" t="s">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E97" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="5" t="s">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E98" s="5" t="s">
+      <c r="G109" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G98" s="5" t="s">
+    </row>
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="5"/>
+      <c r="G110" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="G113" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="5"/>
+      <c r="H122" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="5"/>
+      <c r="G124" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G103" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G104" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G105" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E106" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G108" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="E129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C110" s="5" t="s">
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E111" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E112" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E113" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G114" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G115" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E118" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G123" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E124" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E128" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G129" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G130" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E131" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="E132" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="G133" s="5" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E134" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="G134" s="5" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E135" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="G136" s="5" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E137" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2387,61 +2678,257 @@
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E140" s="5" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E141" s="5" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G142" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E143" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G143" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="5"/>
+      <c r="G164" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="5"/>
+      <c r="G165" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="5"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="5"/>
+      <c r="G167" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="5"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/리볼트데이_스크립트(캐릭터 별 대사).xlsx
+++ b/리볼트데이_스크립트(캐릭터 별 대사).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경일\Desktop\리볼트데이\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -924,6 +924,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>해당 이벤트는</t>
     </r>
@@ -1115,22 +1117,6 @@
   </si>
   <si>
     <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>I "8천원 획득"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">재화 </t>
     </r>
     <r>
@@ -1151,6 +1137,10 @@
   </si>
   <si>
     <t>&lt;해당 이벤트는 다시 발생하지 않음&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI "\5 획득"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1572,8 +1562,8 @@
   <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="2" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2898,16 +2888,16 @@
       <c r="E166" s="5"/>
       <c r="G166" s="4"/>
       <c r="H166" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I166" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E167" s="5"/>
       <c r="G167" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -2916,7 +2906,7 @@
       <c r="E168" s="5"/>
       <c r="G168" s="4"/>
       <c r="H168" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I168" s="5"/>
     </row>

--- a/리볼트데이_스크립트(캐릭터 별 대사).xlsx
+++ b/리볼트데이_스크립트(캐릭터 별 대사).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
   <si>
     <t>EventID</t>
   </si>
@@ -1141,6 +1141,14 @@
   </si>
   <si>
     <t>UI "\5 획득"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1563,7 +1571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1617,6 +1625,9 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1703,6 +1714,9 @@
       <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1835,6 +1849,9 @@
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
       <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
@@ -1923,6 +1940,9 @@
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
@@ -2031,6 +2051,9 @@
       <c r="C59" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
       <c r="E59" s="5" t="s">
         <v>48</v>
       </c>
@@ -2152,6 +2175,9 @@
       <c r="C74" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
       <c r="E74" s="5" t="s">
         <v>90</v>
       </c>
@@ -2244,6 +2270,9 @@
       <c r="C86" s="5" t="s">
         <v>106</v>
       </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
       <c r="E86" s="5" t="s">
         <v>105</v>
       </c>
@@ -2341,6 +2370,9 @@
       <c r="C99" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
       <c r="E99" s="5" t="s">
         <v>90</v>
       </c>
@@ -2449,6 +2481,9 @@
       <c r="C113" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="D113" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="E113" s="5" t="s">
         <v>136</v>
       </c>
@@ -2580,6 +2615,9 @@
       <c r="C129" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="D129" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="E129" s="5" t="s">
         <v>19</v>
       </c>
@@ -2641,6 +2679,9 @@
       <c r="C136" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
       <c r="E136" s="5" t="s">
         <v>158</v>
       </c>
@@ -2723,6 +2764,9 @@
       <c r="B145" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
       <c r="E145" s="5" t="s">
         <v>163</v>
       </c>
@@ -2778,6 +2822,9 @@
       <c r="A152" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="D152">
+        <v>13</v>
+      </c>
       <c r="E152" s="5" t="s">
         <v>180</v>
       </c>
@@ -2827,6 +2874,9 @@
     <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>186</v>
+      </c>
+      <c r="D158">
+        <v>13</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>180</v>
